--- a/ldrpyutils/test/data/simple.xlsx
+++ b/ldrpyutils/test/data/simple.xlsx
@@ -1,34 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jon/dev/git/ldrpyutils/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\git\github\csiro-lw-ld\ldrpyutils\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9400" activeTab="1"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="13656" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="registerinfo" sheetId="2" r:id="rId1"/>
-    <sheet name="testreg" sheetId="1" r:id="rId2"/>
+    <sheet name="testreg4" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yu, Jonathan (L&amp;W, Clayton)</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Value of id is the name of the sheet with the items in them. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A short label to describe the register or container</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Description or definition for the register or container</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expect a URL for the location of the register online.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A description of the register's source material</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A person or organisation unit responsible for maintaining this register.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yu, Jonathan (L&amp;W, Clayton)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This is the identifier for the item in this register</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>A short label for the item, aka the 'term' which this concept definition is about</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>An alternate label for the item. Aligned with skos:altLabel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>A description or definition of the item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>An abbreviation or technical/scientific notation for the item</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yu, Jonathan (L&amp;W, Clayton):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A general note for users to be aware of.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Source of the item's definition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reference to a broader item in this register. Use the value in the 'id' column in this sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>label</t>
   </si>
@@ -42,18 +256,9 @@
     <t>note</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>the label for register info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the description </t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -72,9 +277,6 @@
     <t>aaaa</t>
   </si>
   <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
     <t>bb</t>
   </si>
   <si>
@@ -84,9 +286,6 @@
     <t>bbbb</t>
   </si>
   <si>
-    <t>bbbbbb</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
@@ -96,29 +295,116 @@
     <t>cccc</t>
   </si>
   <si>
-    <t>cccccc</t>
-  </si>
-  <si>
     <t>Register_property</t>
   </si>
   <si>
     <t>Register_property_value</t>
   </si>
   <si>
-    <t>testreg</t>
-  </si>
-  <si>
     <t>registry_location</t>
   </si>
   <si>
-    <t>http://registry.it.csiro.au/sandbox/csiro/utils/testreg1</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>broader</t>
+  </si>
+  <si>
+    <t>maintainer</t>
+  </si>
+  <si>
+    <t>Github repo at  https://github.com/CSIRO-LW-LD/ldrpyutils</t>
+  </si>
+  <si>
+    <t>Green book</t>
+  </si>
+  <si>
+    <t>Red book</t>
+  </si>
+  <si>
+    <t>Yellow book</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Blue book</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Description of item 5</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>to be noted regarding item 5: this is item 5 which is narrower than 4</t>
+  </si>
+  <si>
+    <t>plucked from thin air</t>
+  </si>
+  <si>
+    <t>testreg4</t>
+  </si>
+  <si>
+    <t>4th test register</t>
+  </si>
+  <si>
+    <t>the description of the 4th test register</t>
+  </si>
+  <si>
+    <t>http://registry.it.csiro.au/sandbox/csiro/utils/testreg4</t>
+  </si>
+  <si>
+    <t>Simon Cox</t>
+  </si>
+  <si>
+    <t>altLabel</t>
+  </si>
+  <si>
+    <t>alternative to a</t>
+  </si>
+  <si>
+    <t>alternative to b</t>
+  </si>
+  <si>
+    <t>alternative to c</t>
+  </si>
+  <si>
+    <t>alternative to d</t>
+  </si>
+  <si>
+    <t>alternative to item 5</t>
+  </si>
+  <si>
+    <t>item 6</t>
+  </si>
+  <si>
+    <t>atl label 6</t>
+  </si>
+  <si>
+    <t>description 6</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>http://registry.it.csiro.au/sandbox/csiro/utils/commondef/1</t>
+  </si>
+  <si>
+    <t>notes on description 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +427,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,57 +753,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -507,107 +828,207 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>